--- a/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2005-12-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2005-12-31 to 2020-02-29.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
-    <t>C Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>A Diff-in-Diff</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Constant</t>
@@ -37,64 +37,64 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>0.093***</t>
-  </si>
-  <si>
-    <t>-1.052**</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>4.153***</t>
-  </si>
-  <si>
-    <t>-0.095</t>
-  </si>
-  <si>
-    <t>0.861***</t>
-  </si>
-  <si>
-    <t>-3.328**</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-4.752**</t>
-  </si>
-  <si>
-    <t>0.079</t>
-  </si>
-  <si>
-    <t>-0.049**</t>
+    <t>0.094***</t>
+  </si>
+  <si>
+    <t>-1.013**</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>4.17***</t>
+  </si>
+  <si>
+    <t>-0.054</t>
+  </si>
+  <si>
+    <t>0.858***</t>
+  </si>
+  <si>
+    <t>-3.322**</t>
+  </si>
+  <si>
+    <t>-0.052</t>
+  </si>
+  <si>
+    <t>-4.73**</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>-0.047**</t>
   </si>
   <si>
     <t>-0.017**</t>
   </si>
   <si>
-    <t>-0.028</t>
-  </si>
-  <si>
-    <t>-0.574***</t>
-  </si>
-  <si>
-    <t>-0.026</t>
-  </si>
-  <si>
-    <t>0.04</t>
+    <t>-0.031</t>
+  </si>
+  <si>
+    <t>-0.586***</t>
+  </si>
+  <si>
+    <t>-0.016</t>
+  </si>
+  <si>
+    <t>0.037</t>
   </si>
   <si>
     <t>-0.001</t>
   </si>
   <si>
-    <t>-0.092</t>
-  </si>
-  <si>
-    <t>-1.026***</t>
-  </si>
-  <si>
-    <t>-0.133</t>
+    <t>-0.101</t>
+  </si>
+  <si>
+    <t>-1.02***</t>
+  </si>
+  <si>
+    <t>-0.124</t>
   </si>
   <si>
     <t>0.087***</t>
@@ -103,10 +103,10 @@
     <t>-0.011**</t>
   </si>
   <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.14***</t>
+    <t>-0.264***</t>
+  </si>
+  <si>
+    <t>-0.138***</t>
   </si>
   <si>
     <t>-0.014</t>
@@ -606,7 +606,7 @@
         <v>0.19</v>
       </c>
       <c r="D8">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E8">
         <v>0.22</v>
